--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/138.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/138.xlsx
@@ -479,13 +479,13 @@
         <v>-0.04612877012034289</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.60461479084037</v>
+        <v>-1.605822063506408</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04291787823078498</v>
+        <v>-0.04238743378690665</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1466709226304411</v>
+        <v>-0.1492523139893742</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04470404138708753</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.586467137381334</v>
+        <v>-1.588407115948337</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07336885215146809</v>
+        <v>-0.07221824417379728</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.120559519427184</v>
+        <v>-0.1236052464269008</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04718438195444197</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.63514603973624</v>
+        <v>-1.636899497037369</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1212300515728581</v>
+        <v>-0.1199503740272406</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1160137522048676</v>
+        <v>-0.1187194910743835</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05477665049158601</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.729216505511215</v>
+        <v>-1.730730711905906</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1480639295527922</v>
+        <v>-0.1472234033420177</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1268445777785377</v>
+        <v>-0.1298163258795534</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0654591228742889</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.760129454044</v>
+        <v>-1.760120796938832</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1091620469698457</v>
+        <v>-0.1090880680711446</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1169801999453462</v>
+        <v>-0.1196890868531047</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07533921805853519</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.620598168007618</v>
+        <v>-1.619401126465869</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04467448357015655</v>
+        <v>-0.0445705983081507</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1178852609400941</v>
+        <v>-0.1202667518706221</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.0795382740423686</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.332000188098016</v>
+        <v>-1.332282724530289</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.009183500423068638</v>
+        <v>-0.007478837714699992</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1128310855415976</v>
+        <v>-0.1160231963195954</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07439083384493535</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9109894236281143</v>
+        <v>-0.9130482406387755</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008747497126468346</v>
+        <v>-0.004296171051430001</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07267156168073188</v>
+        <v>-0.07589200480291308</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.05710587290162617</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3844863236295195</v>
+        <v>-0.3894177255365545</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05525189206529717</v>
+        <v>-0.04931783997799358</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02538645325773792</v>
+        <v>-0.02835820135875362</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02734883055739063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1798231416435966</v>
+        <v>0.1725259889972467</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1143626061466232</v>
+        <v>-0.1055339328952476</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05700400362762528</v>
+        <v>0.05375050610389676</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.01468801436272649</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8590029483701156</v>
+        <v>0.8488253407317854</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2431661648617798</v>
+        <v>-0.2319733148902106</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1368351054217536</v>
+        <v>0.1332841182840992</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.06937142641384927</v>
       </c>
       <c r="E13" t="n">
-        <v>1.552193099295332</v>
+        <v>1.539649740917687</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4477681883822923</v>
+        <v>-0.4343512493923252</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2555318873590384</v>
+        <v>0.2519494198389581</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1344046533229231</v>
       </c>
       <c r="E14" t="n">
-        <v>2.275780707491107</v>
+        <v>2.260847988087328</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6785650381194909</v>
+        <v>-0.6640573038784624</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3763110965938041</v>
+        <v>0.3720250425265023</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2079077857834392</v>
       </c>
       <c r="E15" t="n">
-        <v>3.008060049274705</v>
+        <v>2.990944165349681</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9262306507796688</v>
+        <v>-0.9099112205300234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4884394967379012</v>
+        <v>0.4839472461657091</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.289900117235948</v>
       </c>
       <c r="E16" t="n">
-        <v>3.628678474593232</v>
+        <v>3.611523240190176</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.210070370885579</v>
+        <v>-1.189875705559291</v>
       </c>
       <c r="G16" t="n">
-        <v>0.633948120387422</v>
+        <v>0.6274804758179975</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3796631542799399</v>
       </c>
       <c r="E17" t="n">
-        <v>4.222725883125082</v>
+        <v>4.204086348690639</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.464420055744361</v>
+        <v>-1.441276465594316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.783541323656718</v>
+        <v>0.7765983253126607</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4779915259156345</v>
       </c>
       <c r="E18" t="n">
-        <v>4.751294096210823</v>
+        <v>4.733066954786161</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.705559785127626</v>
+        <v>-1.681363963194992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9201929417106799</v>
+        <v>0.9121497040008334</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5847156865867601</v>
       </c>
       <c r="E19" t="n">
-        <v>5.181320842207535</v>
+        <v>5.162621495046483</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.99458275019998</v>
+        <v>-1.967869284682825</v>
       </c>
       <c r="G19" t="n">
-        <v>1.065507961008281</v>
+        <v>1.056885484261795</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.7031314815234553</v>
       </c>
       <c r="E20" t="n">
-        <v>5.51889600109553</v>
+        <v>5.500045548098832</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.248278430113861</v>
+        <v>-2.220599303865788</v>
       </c>
       <c r="G20" t="n">
-        <v>1.216297418809765</v>
+        <v>1.207567908763032</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.8352450778247952</v>
       </c>
       <c r="E21" t="n">
-        <v>5.803629764062339</v>
+        <v>5.78475255274058</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.470538587146685</v>
+        <v>-2.441789914905689</v>
       </c>
       <c r="G21" t="n">
-        <v>1.353326801452839</v>
+        <v>1.345004962358523</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.9754701659431676</v>
       </c>
       <c r="E22" t="n">
-        <v>6.009568129816835</v>
+        <v>5.991632181929615</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.676110993455479</v>
+        <v>-2.64733477587986</v>
       </c>
       <c r="G22" t="n">
-        <v>1.468867675051916</v>
+        <v>1.45999020720778</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.112121987984865</v>
       </c>
       <c r="E23" t="n">
-        <v>6.149356767979549</v>
+        <v>6.129983740634581</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.796389664609671</v>
+        <v>-2.768565728602439</v>
       </c>
       <c r="G23" t="n">
-        <v>1.567967918929007</v>
+        <v>1.559206928499848</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.231122857412308</v>
       </c>
       <c r="E24" t="n">
-        <v>6.253756734238061</v>
+        <v>6.233687990441477</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.869508361861013</v>
+        <v>-2.843255296936839</v>
       </c>
       <c r="G24" t="n">
-        <v>1.615659124285297</v>
+        <v>1.607005167156386</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.320707668674487</v>
       </c>
       <c r="E25" t="n">
-        <v>6.271562038538214</v>
+        <v>6.251567273640331</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.947633226927651</v>
+        <v>-2.92123850028256</v>
       </c>
       <c r="G25" t="n">
-        <v>1.666119029275954</v>
+        <v>1.658684936966051</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.377553960361825</v>
       </c>
       <c r="E26" t="n">
-        <v>6.260131511679329</v>
+        <v>6.24073487404754</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.008687067614223</v>
+        <v>-2.98295657703832</v>
       </c>
       <c r="G26" t="n">
-        <v>1.68466569658224</v>
+        <v>1.6772583625974</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.402036235777595</v>
       </c>
       <c r="E27" t="n">
-        <v>6.164023478151829</v>
+        <v>6.145064417835763</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.022596674589157</v>
+        <v>-2.997760226874154</v>
       </c>
       <c r="G27" t="n">
-        <v>1.691138063209029</v>
+        <v>1.683862946830377</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.396529294647612</v>
       </c>
       <c r="E28" t="n">
-        <v>5.999379504044656</v>
+        <v>5.981964556486585</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.032508272995988</v>
+        <v>-3.007903993101376</v>
       </c>
       <c r="G28" t="n">
-        <v>1.676773564708039</v>
+        <v>1.670060373155691</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.365007585959811</v>
       </c>
       <c r="E29" t="n">
-        <v>5.828593707326168</v>
+        <v>5.812249092770581</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.989378575053227</v>
+        <v>-2.965916246031119</v>
       </c>
       <c r="G29" t="n">
-        <v>1.639790411433958</v>
+        <v>1.633152772799433</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.312037788228864</v>
       </c>
       <c r="E30" t="n">
-        <v>5.635277400905381</v>
+        <v>5.620284868774992</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.960463056785373</v>
+        <v>-2.93821744454403</v>
       </c>
       <c r="G30" t="n">
-        <v>1.569902388429086</v>
+        <v>1.563968336341782</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.243675782628568</v>
       </c>
       <c r="E31" t="n">
-        <v>5.395576324998984</v>
+        <v>5.381693476349112</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.85927881159168</v>
+        <v>-2.839183309470034</v>
       </c>
       <c r="G31" t="n">
-        <v>1.495405637437046</v>
+        <v>1.489466863292378</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.165827668967574</v>
       </c>
       <c r="E32" t="n">
-        <v>5.163968855414316</v>
+        <v>5.150023045999593</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.797693739451669</v>
+        <v>-2.777384957739087</v>
       </c>
       <c r="G32" t="n">
-        <v>1.421950887103307</v>
+        <v>1.416276548171018</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.085537556541021</v>
       </c>
       <c r="E33" t="n">
-        <v>4.869336086193647</v>
+        <v>4.855953775624348</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.673441457025753</v>
+        <v>-2.654480822690565</v>
       </c>
       <c r="G33" t="n">
-        <v>1.348181332945307</v>
+        <v>1.342965033577317</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.007545559755646</v>
       </c>
       <c r="E34" t="n">
-        <v>4.608829625541898</v>
+        <v>4.597221234522306</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.596826076296442</v>
+        <v>-2.578260520760701</v>
       </c>
       <c r="G34" t="n">
-        <v>1.247385870474575</v>
+        <v>1.242411970051265</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9362391588387604</v>
       </c>
       <c r="E35" t="n">
-        <v>4.294427176157692</v>
+        <v>4.284853991861941</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.523216285079255</v>
+        <v>-2.505693517211375</v>
       </c>
       <c r="G35" t="n">
-        <v>1.155740181155964</v>
+        <v>1.15087016599466</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8729809201358193</v>
       </c>
       <c r="E36" t="n">
-        <v>3.954813662507613</v>
+        <v>3.946136095091882</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.427086215284058</v>
+        <v>-2.410153704586666</v>
       </c>
       <c r="G36" t="n">
-        <v>1.075792601946859</v>
+        <v>1.072299853516693</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8177625426770333</v>
       </c>
       <c r="E37" t="n">
-        <v>3.671246247709688</v>
+        <v>3.663346245739879</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.358470786738758</v>
+        <v>-2.34189479137234</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9891774777399251</v>
+        <v>0.9853762215619839</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7701944356199176</v>
       </c>
       <c r="E38" t="n">
-        <v>3.370808495969662</v>
+        <v>3.365398592249751</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.290381867589533</v>
+        <v>-2.274212756165972</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8996866205983745</v>
+        <v>0.8965669146999565</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7280921387543363</v>
       </c>
       <c r="E39" t="n">
-        <v>3.052711823707763</v>
+        <v>3.048430491697825</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.212730782278406</v>
+        <v>-2.197577700197644</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8114030361228616</v>
+        <v>0.808788590362381</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.68984232650427</v>
       </c>
       <c r="E40" t="n">
-        <v>2.772895296475897</v>
+        <v>2.767820658828823</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.138906924460722</v>
+        <v>-2.123435890517457</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7445261116970379</v>
+        <v>0.7422485060285158</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6547313610379366</v>
       </c>
       <c r="E41" t="n">
-        <v>2.476033716179466</v>
+        <v>2.471561927855851</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.078742404577685</v>
+        <v>-2.064484939376943</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6862653679412143</v>
+        <v>0.6846283880550615</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6217507421806076</v>
       </c>
       <c r="E42" t="n">
-        <v>2.199749287855799</v>
+        <v>2.196665784397171</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.992853690195231</v>
+        <v>-1.979729518761826</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6144633376848407</v>
+        <v>0.6134732796575426</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5895338112889034</v>
       </c>
       <c r="E43" t="n">
-        <v>1.946883116018843</v>
+        <v>1.944304872698153</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.929972413308829</v>
+        <v>-1.916441357932568</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5441298672686409</v>
+        <v>0.5426345491034051</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.5566949580802264</v>
       </c>
       <c r="E44" t="n">
-        <v>1.744952202947178</v>
+        <v>1.741901753890097</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.87840912091414</v>
+        <v>-1.865342401178662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4776370035084146</v>
+        <v>0.4759968755840193</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5217855106028154</v>
       </c>
       <c r="E45" t="n">
-        <v>1.532379346596399</v>
+        <v>1.530920230870953</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.793264917576061</v>
+        <v>-1.780418560517566</v>
       </c>
       <c r="G45" t="n">
-        <v>0.426700170724003</v>
+        <v>0.4253087378207732</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.485183062407316</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336311654751579</v>
+        <v>1.334296910276314</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.733829955555747</v>
+        <v>-1.721451082176278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3749920685701542</v>
+        <v>0.3743640349407552</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4469118217613198</v>
       </c>
       <c r="E47" t="n">
-        <v>1.181853158378342</v>
+        <v>1.180486909781053</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.7025022529845</v>
+        <v>-1.690381518740923</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3270962407280955</v>
+        <v>0.3256213848114368</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4083783002609571</v>
       </c>
       <c r="E48" t="n">
-        <v>1.005196270337402</v>
+        <v>1.004524164172607</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.639909021597296</v>
+        <v>-1.627625376374665</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2561268665868901</v>
+        <v>0.2551793070758671</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3707176998939316</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8588597126300773</v>
+        <v>0.8580978873753677</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.589641933948998</v>
+        <v>-1.577303985066682</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2215692767787335</v>
+        <v>0.2206720858795921</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3348114369858555</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7593171693799005</v>
+        <v>0.7584813652264898</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.538696444059419</v>
+        <v>-1.525715508366052</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1796720358079518</v>
+        <v>0.1785875366333756</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3017036443430123</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6438691629089802</v>
+        <v>0.6434347336315013</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.501348905358757</v>
+        <v>-1.488225520934912</v>
       </c>
       <c r="G51" t="n">
-        <v>0.145605539965641</v>
+        <v>0.144432895720272</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2713055967812443</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5364990225685751</v>
+        <v>0.5350839793785258</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.457547888260762</v>
+        <v>-1.444828239741531</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1062345996845469</v>
+        <v>0.1057403576804585</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2434558599293674</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4679866922757201</v>
+        <v>0.4654918719684585</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.417921169872456</v>
+        <v>-1.405881497613627</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07431349190456894</v>
+        <v>0.07338639464212285</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2185783529409838</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3764527583147212</v>
+        <v>0.372766405532635</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.366050943749114</v>
+        <v>-1.352914180162738</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0435351220066553</v>
+        <v>0.04294643885528884</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1959604353276898</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2863118312760734</v>
+        <v>0.281509498936985</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.334493434386156</v>
+        <v>-1.321373985010115</v>
       </c>
       <c r="G55" t="n">
-        <v>0.008979106217619999</v>
+        <v>0.009068825307534138</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1746282766902676</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2223641564349903</v>
+        <v>0.2167999988411924</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.314497095469152</v>
+        <v>-1.301269825783302</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008240662969409526</v>
+        <v>-0.00880101377659257</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1540970420950626</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1465011568456611</v>
+        <v>0.1407402468617006</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.321477870272121</v>
+        <v>-1.308336384628381</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04415190922188472</v>
+        <v>-0.04466189141718614</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1332410543857573</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08320040386343264</v>
+        <v>0.07714043024642499</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.301702681041659</v>
+        <v>-1.289184506969955</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0743242817580976</v>
+        <v>-0.07501370213322731</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.111589740105167</v>
       </c>
       <c r="E59" t="n">
-        <v>0.04597799968291397</v>
+        <v>0.03914675669646898</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.31209829032829</v>
+        <v>-1.299244850183748</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09928822502192651</v>
+        <v>-0.09966441559191737</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.08928525584698813</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.00779364153896013</v>
+        <v>-0.01603677967721183</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.316184443967186</v>
+        <v>-1.304108569268568</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1040134304240712</v>
+        <v>-0.1048350684053901</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06644248446028128</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.04638229431676779</v>
+        <v>-0.05522985579759896</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.296213289356123</v>
+        <v>-1.284515966256177</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1351648428537331</v>
+        <v>-0.1358164867699516</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.04359197594232056</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1002955972595589</v>
+        <v>-0.1093981498380408</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.320870298891299</v>
+        <v>-1.308866042062699</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1428192978406183</v>
+        <v>-0.1437243588353662</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.02074127599515157</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1437574132369135</v>
+        <v>-0.1533778181063034</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.360704787803616</v>
+        <v>-1.348205501961367</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1617012312197414</v>
+        <v>-0.1622568599695605</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.002003516965230171</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.1984498556447485</v>
+        <v>-0.2097812192989922</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.402069223301837</v>
+        <v>-1.389028474881861</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1774445704709909</v>
+        <v>-0.1785227735690818</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.02415941484536327</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2515509647209486</v>
+        <v>-0.2640360843911056</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.434954417793612</v>
+        <v>-1.421890846096377</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2028586832035118</v>
+        <v>-0.203781058408594</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.04591405792104647</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.3183444661333432</v>
+        <v>-0.3303369178185332</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.477096418737756</v>
+        <v>-1.464745090692909</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2088525480174248</v>
+        <v>-0.2099606574788205</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06728938545052712</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3057239808187543</v>
+        <v>-0.3190968472733249</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.523463874013032</v>
+        <v>-1.51134864883638</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2419305598515587</v>
+        <v>-0.2431551467279307</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.0883555966795304</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.332900994967132</v>
+        <v>-0.3447486368931623</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.554154098840152</v>
+        <v>-1.541036223483232</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2522325150004717</v>
+        <v>-0.2533642347486869</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1096487212927646</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.360943719632225</v>
+        <v>-0.3727614551949506</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.613531609162539</v>
+        <v>-1.599686536971578</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2582405459864764</v>
+        <v>-0.2588008967936595</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1308678334297861</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.3873982590039257</v>
+        <v>-0.3990113720808822</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.631592691569903</v>
+        <v>-1.618134828082783</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2685928697472711</v>
+        <v>-0.269142202420605</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1519968589614565</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.3940673780208767</v>
+        <v>-0.4048714452694847</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.669838208179268</v>
+        <v>-1.65531945580439</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2871851836080748</v>
+        <v>-0.2875188756617906</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1727623135371829</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.3922399418210466</v>
+        <v>-0.4026221719451459</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.702494382888893</v>
+        <v>-1.687670270804483</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2847722122951208</v>
+        <v>-0.2849532244940705</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1925308204627693</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3529571466107453</v>
+        <v>-0.3625240348300109</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.727324534527411</v>
+        <v>-1.713181972722525</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2870419478680364</v>
+        <v>-0.286615388686164</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2104735986632906</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3114109119040137</v>
+        <v>-0.3211383500736519</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.759725718139386</v>
+        <v>-1.74556033305724</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2917734493466663</v>
+        <v>-0.2914775337518618</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.225495654425839</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2480471981569332</v>
+        <v>-0.2566555087313267</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.779075922207096</v>
+        <v>-1.764925490306603</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2954739683008442</v>
+        <v>-0.2945342788854277</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2367946773991583</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.14042521475712</v>
+        <v>-0.1488178847118952</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.787210453025978</v>
+        <v>-1.77317492452134</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.278496598058495</v>
+        <v>-0.2771161832891143</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2442577467404741</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.05386832925767386</v>
+        <v>-0.0614944519003757</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.773500746479449</v>
+        <v>-1.759481745175584</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2650450306478593</v>
+        <v>-0.2633025914805795</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2475389126744219</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08132259905172091</v>
+        <v>0.07452755850506584</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.777388573709062</v>
+        <v>-1.763441190275216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.2373013696158134</v>
+        <v>-0.2348333076336139</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2464810402775746</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2089472174450233</v>
+        <v>0.2022718023515871</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.806138032959619</v>
+        <v>-1.792391336963739</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2207269482685172</v>
+        <v>-0.2185138773839684</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2415973768878225</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3554962677337238</v>
+        <v>0.3485249370454831</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.76311851635535</v>
+        <v>-1.750785289530398</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1944974936311625</v>
+        <v>-0.1919444346164128</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2335521846810387</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4854520084456725</v>
+        <v>0.4792676873180821</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.741511168867694</v>
+        <v>-1.730606364395323</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1659054362927355</v>
+        <v>-0.1636073683756365</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2235256076276782</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6640276257954781</v>
+        <v>0.6565164065486313</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.70212763643363</v>
+        <v>-1.692355338719035</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1399545830398511</v>
+        <v>-0.1378847478953407</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2122495170071022</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8372877805726513</v>
+        <v>0.8307870816016795</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.632892044354537</v>
+        <v>-1.62463080499639</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.12117181286537</v>
+        <v>-0.1180174785462834</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2004780251937372</v>
       </c>
       <c r="E84" t="n">
-        <v>1.018981529801754</v>
+        <v>1.011487624765241</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.553348988059607</v>
+        <v>-1.546862455260727</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1052757937593543</v>
+        <v>-0.1017783232718242</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1900584755710417</v>
       </c>
       <c r="E85" t="n">
-        <v>1.166054728457847</v>
+        <v>1.157476324246759</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.448388670993913</v>
+        <v>-1.442248422401719</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.08524954847904567</v>
+        <v>-0.08089266355128537</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1827842770685987</v>
       </c>
       <c r="E86" t="n">
-        <v>1.327723806425762</v>
+        <v>1.319981206368084</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.331551592648445</v>
+        <v>-1.326679216458459</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05513856268856352</v>
+        <v>-0.05076593756959021</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1803270885559199</v>
       </c>
       <c r="E87" t="n">
-        <v>1.468299454149127</v>
+        <v>1.459448744630053</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.201428218900078</v>
+        <v>-1.197351509375909</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.03120560194918656</v>
+        <v>-0.02655122740750043</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.184891938901296</v>
       </c>
       <c r="E88" t="n">
-        <v>1.558907864866801</v>
+        <v>1.551766540113459</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.055665391162467</v>
+        <v>-1.052878590308204</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.01711970483266671</v>
+        <v>-0.01270458119741828</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1970478012460171</v>
       </c>
       <c r="E89" t="n">
-        <v>1.663981511309228</v>
+        <v>1.65622631909858</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9101150560062318</v>
+        <v>-0.9092761038145785</v>
       </c>
       <c r="G89" t="n">
-        <v>0.007033618583692349</v>
+        <v>0.01176512006232222</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.2159422674455831</v>
       </c>
       <c r="E90" t="n">
-        <v>1.707901366850881</v>
+        <v>1.700448386311523</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7191023265694687</v>
+        <v>-0.720470149185879</v>
       </c>
       <c r="G90" t="n">
-        <v>0.008440791678135164</v>
+        <v>0.0137940307096788</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.2400244187823269</v>
       </c>
       <c r="E91" t="n">
-        <v>1.725607507946393</v>
+        <v>1.720079552792385</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5341755420652149</v>
+        <v>-0.5358534464485214</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.009791071803890702</v>
+        <v>-0.005166603625509282</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.2673190903644179</v>
       </c>
       <c r="E92" t="n">
-        <v>1.698175502700364</v>
+        <v>1.693313357634666</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3702178402949287</v>
+        <v>-0.3728039537112257</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.01307604971004524</v>
+        <v>-0.008110019382341568</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2964928156752493</v>
       </c>
       <c r="E93" t="n">
-        <v>1.654886828826353</v>
+        <v>1.650947058965737</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2177520521292589</v>
+        <v>-0.2206608394654226</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02841801408536304</v>
+        <v>-0.02432084231261735</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3247470353424698</v>
       </c>
       <c r="E94" t="n">
-        <v>1.556575168529033</v>
+        <v>1.55359397631329</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.07937373509923021</v>
+        <v>-0.08297666486788748</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.03461020530855995</v>
+        <v>-0.03030683703092387</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3516652653795369</v>
       </c>
       <c r="E95" t="n">
-        <v>1.486635202893158</v>
+        <v>1.483649288620051</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0272975407513174</v>
+        <v>0.02389451141106532</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.07012794678070997</v>
+        <v>-0.066301506296828</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3759899167041622</v>
       </c>
       <c r="E96" t="n">
-        <v>1.402514898993486</v>
+        <v>1.40001535662886</v>
       </c>
       <c r="F96" t="n">
-        <v>0.10920319974732</v>
+        <v>0.1053421308427694</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.09922683827619579</v>
+        <v>-0.09543502621298243</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3966456773665933</v>
       </c>
       <c r="E97" t="n">
-        <v>1.322446120312041</v>
+        <v>1.320626554207817</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1723449767982971</v>
+        <v>0.1686948264560008</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.118873744948271</v>
+        <v>-0.1146585217414277</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4121880535439962</v>
       </c>
       <c r="E98" t="n">
-        <v>1.22778775839526</v>
+        <v>1.225310252298333</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2052891970071205</v>
+        <v>0.2012219315976795</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1395154317050082</v>
+        <v>-0.1357015833740966</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.4226039076035339</v>
       </c>
       <c r="E99" t="n">
-        <v>1.141514196337648</v>
+        <v>1.138787995219555</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2261166180201712</v>
+        <v>0.222608129398792</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1418843304825657</v>
+        <v>-0.1382404762167546</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.4276584574020736</v>
       </c>
       <c r="E100" t="n">
-        <v>1.053314034875564</v>
+        <v>1.050875879256669</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2381090697053611</v>
+        <v>0.2345738227589198</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1564125269721711</v>
+        <v>-0.15276867270636</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.4305328398950257</v>
       </c>
       <c r="E101" t="n">
-        <v>0.962715068272618</v>
+        <v>0.9605161635601609</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2323025131668829</v>
+        <v>0.2275678636500104</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1701521398820048</v>
+        <v>-0.1661982038492975</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.4348252153785249</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9016871989015477</v>
+        <v>0.9000171646138476</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2384758161606242</v>
+        <v>0.233967825397219</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1956118991690434</v>
+        <v>-0.1913085308914073</v>
       </c>
     </row>
   </sheetData>
